--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5429C552-FE88-4F6D-9371-29E2B1772F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD90DA6C-F194-4B00-8A26-015C7BED421A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Piia</t>
   </si>
@@ -84,6 +84,26 @@
 some GameObjects and Scenes. I created the hourlist.
 I watched the tutorial series "How to make a Video
 Game in Unity".</t>
+  </si>
+  <si>
+    <t>Finishing tutorial series, watching and 
+reading C# guides, creating small game
+concept</t>
+  </si>
+  <si>
+    <t>I finished the tutorial series "How to make a Video Game
+in Unity" and started using what I learned in Unity.
+I thought of a small game concept that I could have ready
+by the end of this week as well as started working on it.
+I also watched some C# and Unity guides.</t>
+  </si>
+  <si>
+    <t>Working on creating the small game and
+ a work-in-progress showcase for the talk.</t>
+  </si>
+  <si>
+    <t>Created two scripts, one for movement and one for camera.
+Created some GameObjects and materials.</t>
   </si>
 </sst>
 </file>
@@ -831,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -922,21 +942,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>43985</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="26">
+        <v>6</v>
+      </c>
+      <c r="E8" s="27">
+        <v>6</v>
+      </c>
+      <c r="F8" s="28">
+        <f>E8-D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>43986</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="26">
+        <v>6</v>
+      </c>
+      <c r="E9" s="27">
+        <v>6</v>
+      </c>
+      <c r="F9" s="28">
+        <f>E9-D9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
@@ -980,11 +1026,11 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14">
         <f>SUM(D6:D13)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E14" s="15">
         <f>SUM(E6:E13)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F14" s="16">
         <f>SUM(F6:F13)</f>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD90DA6C-F194-4B00-8A26-015C7BED421A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07500B9-FD9B-4D0D-8387-5B7E123E2563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuntilista" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Piia</t>
   </si>
@@ -104,6 +104,34 @@
   <si>
     <t>Created two scripts, one for movement and one for camera.
 Created some GameObjects and materials.</t>
+  </si>
+  <si>
+    <t>Working on finishing the demo and
+uploading it on GitHub</t>
+  </si>
+  <si>
+    <t>Experimenting with the camera and skybox color.
+Finishing the small demo, build the demo and upload it.</t>
+  </si>
+  <si>
+    <t>Watching Tutorials and experimenting
+in Unity</t>
+  </si>
+  <si>
+    <t>Watching the Tutorial from Jason Weiman and checking
+out the Roguelike tutorial, as well as trying out some things in
+Unity that I learned.</t>
+  </si>
+  <si>
+    <t>Tutorials, research and thinking of
+a small demo concept</t>
+  </si>
+  <si>
+    <t>I did some experimentation with Unity on how to make
+a 2D game, I left it very unpolished for now.
+I also learned a bit more about C# and then I started to
+work out a concept for a small 2D game demo that I could
+get done ideally till Friday.</t>
   </si>
 </sst>
 </file>
@@ -849,7 +877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -917,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="19">
-        <f>E6-D6</f>
+        <f t="shared" ref="F6:F12" si="0">E6-D6</f>
         <v>0</v>
       </c>
     </row>
@@ -938,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="28">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -959,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="28">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -980,60 +1008,131 @@
         <v>6</v>
       </c>
       <c r="F9" s="28">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>43987</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26">
+        <v>6</v>
+      </c>
+      <c r="E10" s="27">
+        <v>6</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>43990</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="26">
+        <v>6</v>
+      </c>
+      <c r="E11" s="27">
+        <v>6</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>43991</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="26">
+        <v>6</v>
+      </c>
+      <c r="E12" s="27">
+        <v>6</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14">
-        <f>SUM(D6:D13)</f>
-        <v>24</v>
-      </c>
-      <c r="E14" s="15">
-        <f>SUM(E6:E13)</f>
-        <v>24</v>
-      </c>
-      <c r="F14" s="16">
-        <f>SUM(F6:F13)</f>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14">
+        <f>SUM(D6:D17)</f>
+        <v>42</v>
+      </c>
+      <c r="E18" s="15">
+        <f>SUM(E6:E17)</f>
+        <v>42</v>
+      </c>
+      <c r="F18" s="16">
+        <f>SUM(F6:F17)</f>
         <v>0</v>
       </c>
     </row>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07500B9-FD9B-4D0D-8387-5B7E123E2563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A3EA2-9011-4FC0-BB2D-94D8FDB15AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
+    <workbookView xWindow="30615" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuntilista" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Piia</t>
   </si>
@@ -132,6 +132,23 @@
 I also learned a bit more about C# and then I started to
 work out a concept for a small 2D game demo that I could
 get done ideally till Friday.</t>
+  </si>
+  <si>
+    <t>Following the weekly plan for learning C#,
+creating a small 2D game</t>
+  </si>
+  <si>
+    <t>Continuing to make the small game and
+doing research</t>
+  </si>
+  <si>
+    <t>I am trying to use all the C# function in the weekly plan
+and I'm trying to create a similar 2D game as in the Jason
+Weimann tutorial without looking up much, but still doing
+research if needed.</t>
+  </si>
+  <si>
+    <t>Continuing what I did the day before.</t>
   </si>
 </sst>
 </file>
@@ -880,7 +897,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -945,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="19">
-        <f t="shared" ref="F6:F12" si="0">E6-D6</f>
+        <f t="shared" ref="F6:F14" si="0">E6-D6</f>
         <v>0</v>
       </c>
     </row>
@@ -1075,21 +1092,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>43992</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="26">
+        <v>6</v>
+      </c>
+      <c r="E13" s="27">
+        <v>6</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>43993</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="26">
+        <v>6</v>
+      </c>
+      <c r="E14" s="27">
+        <v>6</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
@@ -1125,11 +1168,11 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14">
         <f>SUM(D6:D17)</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E18" s="15">
         <f>SUM(E6:E17)</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F18" s="16">
         <f>SUM(F6:F17)</f>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A3EA2-9011-4FC0-BB2D-94D8FDB15AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6B7A0C-C3D1-4690-B557-BA098EB07902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tuntilista" sheetId="1" r:id="rId1"/>
+    <sheet name="Hourlist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>Piia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>-</t>
   </si>
@@ -149,6 +144,47 @@
   </si>
   <si>
     <t>Continuing what I did the day before.</t>
+  </si>
+  <si>
+    <t>Planned out a schedule and a concept,
+watched Tutorials and did some testing</t>
+  </si>
+  <si>
+    <t>Started research on how to build the game,
+started work on movement and wrote the
+schedule</t>
+  </si>
+  <si>
+    <t>Researched how the prototype should look
+and continued work on the base</t>
+  </si>
+  <si>
+    <t>Continued work on the movement and
+started work on some objects</t>
+  </si>
+  <si>
+    <t>Continued work from yesterday and researched sprites,
+which sprites to use or to create own ones, but decided
+to not make sprites from scratch.</t>
+  </si>
+  <si>
+    <t>Continued work from last time and wrote the schedule,
+as well as started working on the movement.</t>
+  </si>
+  <si>
+    <t>Planned schedule and watched Tutorials on how to make
+Zelda like games in Unity, I also used the work I did so far
+to think and experiment how I could build the game.</t>
+  </si>
+  <si>
+    <t>I started work on a box that can be pushed around and
+it should respond on how fast the player is.
+I also continued doing some research and worked on the
+movement. The player should be able to sprint, while
+pressing down a button.</t>
+  </si>
+  <si>
+    <t>Piia</t>
   </si>
 </sst>
 </file>
@@ -569,7 +605,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -598,7 +634,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -894,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -913,36 +949,36 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -950,10 +986,10 @@
         <v>43983</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="17">
         <v>6</v>
@@ -962,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="19">
-        <f t="shared" ref="F6:F14" si="0">E6-D6</f>
+        <f t="shared" ref="F6:F18" si="0">E6-D6</f>
         <v>0</v>
       </c>
     </row>
@@ -971,10 +1007,10 @@
         <v>43984</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="26">
         <v>6</v>
@@ -992,10 +1028,10 @@
         <v>43985</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>15</v>
       </c>
       <c r="D8" s="26">
         <v>6</v>
@@ -1013,10 +1049,10 @@
         <v>43986</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="26">
         <v>6</v>
@@ -1034,10 +1070,10 @@
         <v>43987</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="26">
         <v>6</v>
@@ -1055,10 +1091,10 @@
         <v>43990</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="26">
         <v>6</v>
@@ -1076,10 +1112,10 @@
         <v>43991</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="26">
         <v>6</v>
@@ -1097,10 +1133,10 @@
         <v>43992</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="26">
         <v>6</v>
@@ -1118,10 +1154,10 @@
         <v>43993</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="26">
         <v>6</v>
@@ -1134,48 +1170,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14">
-        <f>SUM(D6:D17)</f>
-        <v>54</v>
-      </c>
-      <c r="E18" s="15">
-        <f>SUM(E6:E17)</f>
-        <v>54</v>
-      </c>
-      <c r="F18" s="16">
-        <f>SUM(F6:F17)</f>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>43994</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="26">
+        <v>6</v>
+      </c>
+      <c r="E15" s="27">
+        <v>6</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>43997</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="26">
+        <v>6</v>
+      </c>
+      <c r="E16" s="27">
+        <v>6</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>43998</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="26">
+        <v>6</v>
+      </c>
+      <c r="E17" s="27">
+        <v>6</v>
+      </c>
+      <c r="F17" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>43999</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="26">
+        <v>6</v>
+      </c>
+      <c r="E18" s="27">
+        <v>6</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14">
+        <f>SUM(D6:D25)</f>
+        <v>78</v>
+      </c>
+      <c r="E26" s="15">
+        <f>SUM(E6:E25)</f>
+        <v>78</v>
+      </c>
+      <c r="F26" s="16">
+        <f>SUM(F6:F25)</f>
         <v>0</v>
       </c>
     </row>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6B7A0C-C3D1-4690-B557-BA098EB07902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F41502-375D-490E-AC5E-95BAD2BA909D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hourlist" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>-</t>
   </si>
@@ -185,6 +187,22 @@
   </si>
   <si>
     <t>Piia</t>
+  </si>
+  <si>
+    <t>Improved the movement script and
+continued work on the objects</t>
+  </si>
+  <si>
+    <t>Essentially continued the work from yesterday and made
+some improvements.</t>
+  </si>
+  <si>
+    <t>Watched a tutorial series on how to use
+sprites and charactersheets in unity</t>
+  </si>
+  <si>
+    <t>Watched the tutorials and then started work on some sprites,
+I later decided to first use free resources as placeholder.</t>
   </si>
 </sst>
 </file>
@@ -605,7 +623,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,7 +652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -932,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -998,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="19">
-        <f t="shared" ref="F6:F18" si="0">E6-D6</f>
+        <f t="shared" ref="F6:F20" si="0">E6-D6</f>
         <v>0</v>
       </c>
     </row>
@@ -1254,21 +1272,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>44000</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="26">
+        <v>6</v>
+      </c>
+      <c r="E19" s="27">
+        <v>6</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>44001</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="26">
+        <v>6</v>
+      </c>
+      <c r="E20" s="27">
+        <v>6</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
@@ -1320,11 +1364,11 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14">
         <f>SUM(D6:D25)</f>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E26" s="15">
         <f>SUM(E6:E25)</f>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F26" s="16">
         <f>SUM(F6:F25)</f>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F41502-375D-490E-AC5E-95BAD2BA909D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8908EC-2965-432C-B551-CDFBC354F00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hourlist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>-</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>Details</t>
-  </si>
-  <si>
-    <t>Planned Hours</t>
-  </si>
-  <si>
-    <t>Hours of Work</t>
-  </si>
-  <si>
-    <t>Diff.</t>
   </si>
   <si>
     <t>Hourlist</t>
@@ -186,9 +177,6 @@
 pressing down a button.</t>
   </si>
   <si>
-    <t>Piia</t>
-  </si>
-  <si>
     <t>Improved the movement script and
 continued work on the objects</t>
   </si>
@@ -203,6 +191,97 @@
   <si>
     <t>Watched the tutorials and then started work on some sprites,
 I later decided to first use free resources as placeholder.</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Piia Laine</t>
+  </si>
+  <si>
+    <t>Searching a free tileset, research as to
+how tilesets work in Unity and
+working in Unity</t>
+  </si>
+  <si>
+    <t>Continuing the work from yesterday</t>
+  </si>
+  <si>
+    <t>Research on how to set up the camera
+and how to animate sprites, as well as
+how to make a pushable object</t>
+  </si>
+  <si>
+    <t>Watching Tutorials on Unity's blend tree
+and trying to implement it and tilesets</t>
+  </si>
+  <si>
+    <t>Working on creating tilemaps in Unity, but
+had some troubles with it, so I tried the
+software Tiled</t>
+  </si>
+  <si>
+    <t>Importing the Tiled tilemaps to Unity and
+working on room transitions</t>
+  </si>
+  <si>
+    <t>Finishing the first demo</t>
+  </si>
+  <si>
+    <t>Research on how NPCs and dialogue work,
+trying to implement it, adding categories
+to the hourlist</t>
+  </si>
+  <si>
+    <t>Read a tutorial about tilesets and continued working on
+my 2D Zelda-like game.</t>
+  </si>
+  <si>
+    <t>Continued work on the camera and animations.
+Managed to get the camera not go beyond the borders
+of the world.</t>
+  </si>
+  <si>
+    <t>I watched a tutorial on how to make the camera similar to
+Zelda: A Link to the Past. Then I continued to research how
+to animate my player character.</t>
+  </si>
+  <si>
+    <t>Animating my player character with Unity's blend tree feature.
+Used grids in Unity to make a tilemap with the tileset
+that I downloaded.</t>
+  </si>
+  <si>
+    <t>I watched a tutorial on the Tiled software and created tilemaps
+with it and continued the work on the animations.</t>
+  </si>
+  <si>
+    <t>Finished 3 tilemaps and imported them into Unity with
+the software Tiled2Unity. I had a few problems with the
+import, but then managed to get it working well.
+I started work on the room transitions.</t>
+  </si>
+  <si>
+    <t>Finished the room transitions and made a small text that
+shows the location when you enter a new room. Along
+with some refinement, I finished the demo.</t>
+  </si>
+  <si>
+    <t>Adding categories to the hourlist. I tried to implement
+NPCs and their dialogue. I planned ahead on how to continue
+with the project.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -620,6 +699,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,9 +1036,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -959,423 +1047,713 @@
     <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>43983</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7:F18" si="0">E7-D7</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="19">
+        <f>D7+E7+F7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>43984</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>3</v>
+      </c>
+      <c r="F8" s="28">
+        <v>3</v>
+      </c>
+      <c r="G8" s="28">
+        <f>D8+E8+F8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>43985</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="27">
+        <v>3</v>
+      </c>
+      <c r="F9" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" ref="G9:G34" si="1">D9+E9+F9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>43986</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>2</v>
+      </c>
+      <c r="F10" s="28">
+        <v>4</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>43987</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="28">
+        <v>5.5</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>43990</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>4</v>
+      </c>
+      <c r="F12" s="28">
+        <v>2</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>43991</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="26">
+        <v>2</v>
+      </c>
+      <c r="E13" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="F13" s="28">
+        <v>3</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>43992</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="F14" s="28">
+        <v>4</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>43993</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="27">
+        <v>2</v>
+      </c>
+      <c r="F15" s="28">
+        <v>4</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>43994</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E16" s="27">
+        <v>2</v>
+      </c>
+      <c r="F16" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>43997</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="26">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2</v>
+      </c>
+      <c r="F17" s="28">
+        <v>2</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>43998</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27">
         <v>3</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>43983</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17">
-        <v>6</v>
-      </c>
-      <c r="E6" s="18">
-        <v>6</v>
-      </c>
-      <c r="F6" s="19">
-        <f t="shared" ref="F6:F20" si="0">E6-D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>43984</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="26">
-        <v>6</v>
-      </c>
-      <c r="E7" s="27">
-        <v>6</v>
-      </c>
-      <c r="F7" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>43985</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="26">
-        <v>6</v>
-      </c>
-      <c r="E8" s="27">
-        <v>6</v>
-      </c>
-      <c r="F8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>43986</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="26">
-        <v>6</v>
-      </c>
-      <c r="E9" s="27">
-        <v>6</v>
-      </c>
-      <c r="F9" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>43987</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="26">
-        <v>6</v>
-      </c>
-      <c r="E10" s="27">
-        <v>6</v>
-      </c>
-      <c r="F10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>43990</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="26">
-        <v>6</v>
-      </c>
-      <c r="E11" s="27">
-        <v>6</v>
-      </c>
-      <c r="F11" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>43991</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="26">
-        <v>6</v>
-      </c>
-      <c r="E12" s="27">
-        <v>6</v>
-      </c>
-      <c r="F12" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>43992</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="26">
-        <v>6</v>
-      </c>
-      <c r="E13" s="27">
-        <v>6</v>
-      </c>
-      <c r="F13" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>43993</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="26">
-        <v>6</v>
-      </c>
-      <c r="E14" s="27">
-        <v>6</v>
-      </c>
-      <c r="F14" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>43994</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="26">
-        <v>6</v>
-      </c>
-      <c r="E15" s="27">
-        <v>6</v>
-      </c>
-      <c r="F15" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>43997</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="26">
-        <v>6</v>
-      </c>
-      <c r="E16" s="27">
-        <v>6</v>
-      </c>
-      <c r="F16" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>43998</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="26">
-        <v>6</v>
-      </c>
-      <c r="E17" s="27">
-        <v>6</v>
-      </c>
-      <c r="F17" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>43999</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="26">
-        <v>6</v>
-      </c>
-      <c r="E18" s="27">
-        <v>6</v>
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
+        <v>43999</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="28">
+        <v>4</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
         <v>44000</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="26">
-        <v>6</v>
-      </c>
-      <c r="E19" s="27">
-        <v>6</v>
-      </c>
-      <c r="F19" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="B20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27">
+        <v>2</v>
+      </c>
+      <c r="F20" s="28">
+        <v>4</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>44001</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="26">
-        <v>6</v>
-      </c>
-      <c r="E20" s="27">
-        <v>6</v>
-      </c>
-      <c r="F20" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14">
-        <f>SUM(D6:D25)</f>
-        <v>90</v>
-      </c>
-      <c r="E26" s="15">
-        <f>SUM(E6:E25)</f>
-        <v>90</v>
-      </c>
-      <c r="F26" s="16">
-        <f>SUM(F6:F25)</f>
-        <v>0</v>
+      <c r="B21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>44004</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="27">
+        <v>4</v>
+      </c>
+      <c r="F22" s="28">
+        <v>2</v>
+      </c>
+      <c r="G22" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>44005</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="F23" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>44006</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>3</v>
+      </c>
+      <c r="F24" s="28">
+        <v>3</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>44007</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <v>3</v>
+      </c>
+      <c r="F25" s="28">
+        <v>3</v>
+      </c>
+      <c r="G25" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>44008</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="G26" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>44011</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="28">
+        <v>4</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>44012</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="26">
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <v>1</v>
+      </c>
+      <c r="F28" s="28">
+        <v>5</v>
+      </c>
+      <c r="G28" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>44013</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="28">
+        <v>3</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20">
+        <f>D35+E35+F35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14">
+        <f>SUM(D7:D35)</f>
+        <v>11</v>
+      </c>
+      <c r="E36" s="15">
+        <f>SUM(E7:E35)</f>
+        <v>52</v>
+      </c>
+      <c r="F36" s="16">
+        <f>SUM(F7:F35)</f>
+        <v>75</v>
+      </c>
+      <c r="G36" s="16">
+        <f>D36+E36+F36</f>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8908EC-2965-432C-B551-CDFBC354F00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B08E1-01A3-4B65-A11B-1999C76B64C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>-</t>
   </si>
@@ -208,9 +206,6 @@
     <t>Categories</t>
   </si>
   <si>
-    <t>Piia Laine</t>
-  </si>
-  <si>
     <t>Searching a free tileset, research as to
 how tilesets work in Unity and
 working in Unity</t>
@@ -282,6 +277,107 @@
     <t>Adding categories to the hourlist. I tried to implement
 NPCs and their dialogue. I planned ahead on how to continue
 with the project.</t>
+  </si>
+  <si>
+    <t>Dialogue with NPC and signs, Project
+Management</t>
+  </si>
+  <si>
+    <t>Configuring, collisions, trigger zones and input settings in
+Unity, as well as doing project management work.</t>
+  </si>
+  <si>
+    <t>Sound Effects and Audio in Unity,
+Project Management</t>
+  </si>
+  <si>
+    <t>Designing some levels in Tiled and
+working animations</t>
+  </si>
+  <si>
+    <t>Research State Machine and continue
+animations</t>
+  </si>
+  <si>
+    <t>Continuing work from the previous day</t>
+  </si>
+  <si>
+    <t>Starting making a small website for
+access to the game</t>
+  </si>
+  <si>
+    <t>Starting work on a pushable object</t>
+  </si>
+  <si>
+    <t>Continuing the work from last time and
+planning the UI for the website</t>
+  </si>
+  <si>
+    <t>Project Management and continuing
+the pushable objects</t>
+  </si>
+  <si>
+    <t>Starting to work on a switch, finishing the
+moving object</t>
+  </si>
+  <si>
+    <t>Continuing work on the Switch and adding
+Sound Effects</t>
+  </si>
+  <si>
+    <t>Finishing the switch and creating a small
+demo as a showcase</t>
+  </si>
+  <si>
+    <t>Finishing the demo and doing Project
+Management</t>
+  </si>
+  <si>
+    <t>Working on the attack animation and started work on
+levels for the final version.</t>
+  </si>
+  <si>
+    <t>Research on how to use sound effects and music in Unity.</t>
+  </si>
+  <si>
+    <t>Gaining knowledge on states in Unity and implement it,
+along with attack animations.</t>
+  </si>
+  <si>
+    <t>Continuing.</t>
+  </si>
+  <si>
+    <t>Starting a small showcase website with Svelte and PHP and
+continued the work from last time.</t>
+  </si>
+  <si>
+    <t>Research how to use collisions and kinematic bodies,
+as well as other body types to make a pot pushable.</t>
+  </si>
+  <si>
+    <t>Continuing with the movable pot and the website.</t>
+  </si>
+  <si>
+    <t>Started work on a showcase document that displays
+how the game works and its features.</t>
+  </si>
+  <si>
+    <t>Finished the object and now working on a switch that
+triggers something to appear or disappear.</t>
+  </si>
+  <si>
+    <t>Continuing the work from yesterday and adding a sound
+manager to use sound effects.</t>
+  </si>
+  <si>
+    <t>Working on displaying all new features in a demo.</t>
+  </si>
+  <si>
+    <t>Finishing the demo and updating the hourlist, as well as the
+showcase document.</t>
+  </si>
+  <si>
+    <t>Piia Laine</t>
   </si>
 </sst>
 </file>
@@ -711,7 +807,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -740,7 +836,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1036,16 +1132,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
@@ -1061,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1168,7 +1264,7 @@
         <v>2.5</v>
       </c>
       <c r="G9" s="28">
-        <f t="shared" ref="G9:G34" si="1">D9+E9+F9</f>
+        <f t="shared" ref="G9:G43" si="1">D9+E9+F9</f>
         <v>6</v>
       </c>
     </row>
@@ -1466,10 +1562,10 @@
         <v>44004</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="26">
         <v>0</v>
@@ -1490,10 +1586,10 @@
         <v>44005</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="26">
         <v>0</v>
@@ -1514,10 +1610,10 @@
         <v>44006</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="26">
         <v>0</v>
@@ -1538,10 +1634,10 @@
         <v>44007</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="26">
         <v>0</v>
@@ -1562,10 +1658,10 @@
         <v>44008</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="26">
         <v>0</v>
@@ -1586,10 +1682,10 @@
         <v>44011</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="26">
         <v>0</v>
@@ -1610,10 +1706,10 @@
         <v>44012</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="26">
         <v>0</v>
@@ -1634,10 +1730,10 @@
         <v>44013</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="26">
         <v>1.5</v>
@@ -1653,101 +1749,365 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>44014</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="26">
+        <v>3</v>
+      </c>
+      <c r="E30" s="27">
+        <v>1</v>
+      </c>
+      <c r="F30" s="28">
+        <v>2</v>
+      </c>
       <c r="G30" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>44015</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="26">
+        <v>2</v>
+      </c>
+      <c r="E31" s="27">
+        <v>3</v>
+      </c>
+      <c r="F31" s="28">
+        <v>1</v>
+      </c>
       <c r="G31" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>44018</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="26">
+        <v>0</v>
+      </c>
+      <c r="E32" s="27">
+        <v>1</v>
+      </c>
+      <c r="F32" s="28">
+        <v>5</v>
+      </c>
       <c r="G32" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>44019</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="27">
+        <v>3</v>
+      </c>
+      <c r="F33" s="28">
+        <v>3</v>
+      </c>
       <c r="G33" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>44020</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="28">
+        <v>4.5</v>
+      </c>
       <c r="G34" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20">
-        <f>D35+E35+F35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14">
-        <f>SUM(D7:D35)</f>
-        <v>11</v>
-      </c>
-      <c r="E36" s="15">
-        <f>SUM(E7:E35)</f>
-        <v>52</v>
-      </c>
-      <c r="F36" s="16">
-        <f>SUM(F7:F35)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>44021</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="16">
-        <f>D36+E36+F36</f>
-        <v>138</v>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="27">
+        <v>0</v>
+      </c>
+      <c r="F35" s="28">
+        <v>6</v>
+      </c>
+      <c r="G35" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>44022</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0</v>
+      </c>
+      <c r="E36" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="F36" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="G36" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>44025</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0</v>
+      </c>
+      <c r="E37" s="27">
+        <v>3</v>
+      </c>
+      <c r="F37" s="28">
+        <v>3</v>
+      </c>
+      <c r="G37" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>44026</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="26">
+        <v>2</v>
+      </c>
+      <c r="E38" s="27">
+        <v>1</v>
+      </c>
+      <c r="F38" s="28">
+        <v>3</v>
+      </c>
+      <c r="G38" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>44027</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="27">
+        <v>1</v>
+      </c>
+      <c r="F39" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="G39" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>44028</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0</v>
+      </c>
+      <c r="E40" s="27">
+        <v>1</v>
+      </c>
+      <c r="F40" s="28">
+        <v>5</v>
+      </c>
+      <c r="G40" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>44029</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="26">
+        <v>0</v>
+      </c>
+      <c r="E41" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="G41" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>44032</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1</v>
+      </c>
+      <c r="E42" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="G42" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20">
+        <f>D44+E44+F44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14">
+        <f>SUM(D7:D44)</f>
+        <v>19.5</v>
+      </c>
+      <c r="E45" s="15">
+        <f>SUM(E7:E44)</f>
+        <v>73</v>
+      </c>
+      <c r="F45" s="16">
+        <f>SUM(F7:F44)</f>
+        <v>123.5</v>
+      </c>
+      <c r="G45" s="16">
+        <f>D45+E45+F45</f>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B08E1-01A3-4B65-A11B-1999C76B64C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF7CC63-DD0D-478F-A7A5-2A19EEA306D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hourlist" sheetId="1" r:id="rId1"/>
+    <sheet name="Class Diagram" sheetId="6" r:id="rId2"/>
+    <sheet name="Schedule" sheetId="4" r:id="rId3"/>
+    <sheet name="Summary" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="129">
   <si>
     <t>-</t>
   </si>
@@ -197,9 +202,6 @@
     <t>Planning</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -378,13 +380,164 @@
   </si>
   <si>
     <t>Piia Laine</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Bugfixes and creating maps,
+Website work</t>
+  </si>
+  <si>
+    <t>Fixing bugs and packaging game elements together in levels.
+Working on the backend of the website and styling.</t>
+  </si>
+  <si>
+    <t>Working on the self-grading documents,
+creating feedback tab on the website</t>
+  </si>
+  <si>
+    <t>Finishing.</t>
+  </si>
+  <si>
+    <t>Finishing up almost all of the game.</t>
+  </si>
+  <si>
+    <t>Finishing the game.</t>
+  </si>
+  <si>
+    <t>Continue work on the game and website</t>
+  </si>
+  <si>
+    <t>Finishing the game download list on the website and
+continuing work on the game.</t>
+  </si>
+  <si>
+    <t>Updating the hourlist and continuing
+work in Unity</t>
+  </si>
+  <si>
+    <t>Updating the hourlist and trying to make a fixed resolution
+setting.</t>
+  </si>
+  <si>
+    <t>Working on some of the self-grading documents and
+creating a php file for creating comments, as well as
+creating the tab in the frontend.</t>
+  </si>
+  <si>
+    <t>Finishing the presentation,
+website and self-grading documents,
+updating hourlist</t>
+  </si>
+  <si>
+    <t>Game-Work</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>15.06.2020 - 19.06.2020</t>
+  </si>
+  <si>
+    <t>1st Week</t>
+  </si>
+  <si>
+    <t>2nd Week</t>
+  </si>
+  <si>
+    <t>3rd Week</t>
+  </si>
+  <si>
+    <t>4th Week</t>
+  </si>
+  <si>
+    <t>5th Week</t>
+  </si>
+  <si>
+    <t>6th Week</t>
+  </si>
+  <si>
+    <t>Final Week</t>
+  </si>
+  <si>
+    <t>22.06.2020 - 27.06.2020</t>
+  </si>
+  <si>
+    <t>29.06.2020 - 03.07.2020</t>
+  </si>
+  <si>
+    <t>13.07.2020 - 17.07.2020</t>
+  </si>
+  <si>
+    <t>06.07.2020 - 10.07.2020</t>
+  </si>
+  <si>
+    <t>20.07.2020 - 24.07.2020</t>
+  </si>
+  <si>
+    <t>27.07.2020 - 31.07.2020</t>
+  </si>
+  <si>
+    <t>Planned Goals</t>
+  </si>
+  <si>
+    <t>Reached Goals</t>
+  </si>
+  <si>
+    <t>Experiment and created a small demo</t>
+  </si>
+  <si>
+    <t>Made the player and camera movement</t>
+  </si>
+  <si>
+    <t>Implemented tilemaps, sprites and animations</t>
+  </si>
+  <si>
+    <t>Making the base of the game</t>
+  </si>
+  <si>
+    <t>Plan out the project</t>
+  </si>
+  <si>
+    <t>Implemented talking with NPCs and reading signs</t>
+  </si>
+  <si>
+    <t>Made a switch in the game and worked on
+a block that can be pushed</t>
+  </si>
+  <si>
+    <t>Creating puzzle elements</t>
+  </si>
+  <si>
+    <t>Finalizing the details</t>
+  </si>
+  <si>
+    <t>Started work on a new map,
+finished the block</t>
+  </si>
+  <si>
+    <t>Creating interactions with the world</t>
+  </si>
+  <si>
+    <t>Finalize the game, last project management</t>
+  </si>
+  <si>
+    <t>Finished the new map, built the final version,
+finished the last documents</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,8 +599,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC52183"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC52183"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,8 +696,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE3A9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -697,11 +951,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5D1B5F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5D1B5F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF5D1B5F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5D1B5F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5D1B5F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5D1B5F"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC52183"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC52183"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC52183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC52183"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC52183"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC52183"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -748,53 +1168,137 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,14 +1309,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC52183"/>
+      <color rgb="FFA11B6B"/>
+      <color rgb="FFDE3A9C"/>
       <color rgb="FF5D1B5F"/>
       <color rgb="FF7E2480"/>
       <color rgb="FF9F2EA2"/>
@@ -820,8 +1342,6 @@
       <color rgb="FFA330C2"/>
       <color rgb="FF9C308D"/>
       <color rgb="FF802873"/>
-      <color rgb="FF932D84"/>
-      <color rgb="FF98428C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -835,8 +1355,1114 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19715642571020034"/>
+          <c:y val="0.13603279678535757"/>
+          <c:w val="0.63441326210736526"/>
+          <c:h val="0.81258904339085269"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9FAE-4F13-9F5A-4D328DEA0E36}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-9FAE-4F13-9F5A-4D328DEA0E36}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9FAE-4F13-9F5A-4D328DEA0E36}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-9FAE-4F13-9F5A-4D328DEA0E36}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fi-FI"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9FAE-4F13-9F5A-4D328DEA0E36}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fi-FI"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-9FAE-4F13-9F5A-4D328DEA0E36}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fi-FI"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9FAE-4F13-9F5A-4D328DEA0E36}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fi-FI"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-9FAE-4F13-9F5A-4D328DEA0E36}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fi-FI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Planning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Research</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Game-Work</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Website</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$A$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FAE-4F13-9F5A-4D328DEA0E36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>252931</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>348010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E3DD0C-6127-467F-9148-9D90A8DAC3B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3408989" y="125668"/>
+          <a:ext cx="7030089" cy="4906401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017A05CB-9327-4614-B459-537DE0D843A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1132,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1143,36 +2769,44 @@
     <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="34"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -1189,932 +2823,1750 @@
         <v>36</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
         <v>43983</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" ref="F7:F18" si="0">E7-D7</f>
+      <c r="F7" s="17">
+        <f>E7-D7</f>
         <v>2</v>
       </c>
-      <c r="G7" s="19">
-        <f>D7+E7+F7</f>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7+E7+F7+G7</f>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <v>43984</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="26">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
         <v>3</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="25">
         <v>3</v>
       </c>
-      <c r="G8" s="28">
-        <f>D8+E8+F8</f>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="38">
+        <f>D8+E8+F8+G8</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
         <v>43985</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <v>0.5</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>3</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <v>2.5</v>
       </c>
-      <c r="G9" s="28">
-        <f t="shared" ref="G9:G43" si="1">D9+E9+F9</f>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38">
+        <f t="shared" ref="H9:H50" si="0">D9+E9+F9+G9</f>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>43986</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
         <v>2</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="25">
         <v>4</v>
       </c>
-      <c r="G10" s="28">
-        <f t="shared" si="1"/>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>43987</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
         <v>0.5</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <v>5.5</v>
       </c>
-      <c r="G11" s="28">
-        <f t="shared" si="1"/>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
         <v>43990</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="26">
-        <v>0</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
         <v>4</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="25">
         <v>2</v>
       </c>
-      <c r="G12" s="28">
-        <f t="shared" si="1"/>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
         <v>43991</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <v>2</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>1</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="25">
         <v>3</v>
       </c>
-      <c r="G13" s="28">
-        <f t="shared" si="1"/>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
         <v>43992</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="26">
-        <v>0</v>
-      </c>
-      <c r="E14" s="27">
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
         <v>2</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="25">
         <v>4</v>
       </c>
-      <c r="G14" s="28">
-        <f t="shared" si="1"/>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
         <v>43993</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="26">
-        <v>0</v>
-      </c>
-      <c r="E15" s="27">
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
         <v>2</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="25">
         <v>4</v>
       </c>
-      <c r="G15" s="28">
-        <f t="shared" si="1"/>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
         <v>43994</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <v>2.5</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <v>2</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="25">
         <v>1.5</v>
       </c>
-      <c r="G16" s="28">
-        <f t="shared" si="1"/>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
         <v>43997</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <v>2</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>2</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="25">
         <v>2</v>
       </c>
-      <c r="G17" s="28">
-        <f t="shared" si="1"/>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
         <v>43998</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>1</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>3</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="25">
+        <f>E18-D18</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>43999</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="25">
+        <v>4</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>44000</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
         <v>2</v>
       </c>
-      <c r="G18" s="28">
-        <f t="shared" si="1"/>
+      <c r="F20" s="25">
+        <v>4</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>43999</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="26">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>44001</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>44004</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>4</v>
+      </c>
+      <c r="F22" s="25">
+        <v>2</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>44005</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="F23" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>44006</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>3</v>
+      </c>
+      <c r="F24" s="25">
+        <v>3</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>44007</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>44008</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>44011</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2</v>
+      </c>
+      <c r="F27" s="25">
+        <v>4</v>
+      </c>
+      <c r="G27" s="26">
+        <v>0</v>
+      </c>
+      <c r="H27" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>44012</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1</v>
+      </c>
+      <c r="F28" s="25">
+        <v>5</v>
+      </c>
+      <c r="G28" s="26">
+        <v>0</v>
+      </c>
+      <c r="H28" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>44013</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="25">
+        <v>3</v>
+      </c>
+      <c r="G29" s="26">
+        <v>0</v>
+      </c>
+      <c r="H29" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>44014</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="24">
+        <v>3</v>
+      </c>
+      <c r="E30" s="25">
+        <v>1</v>
+      </c>
+      <c r="F30" s="25">
+        <v>2</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0</v>
+      </c>
+      <c r="H30" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>44015</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="24">
+        <v>2</v>
+      </c>
+      <c r="E31" s="25">
+        <v>3</v>
+      </c>
+      <c r="F31" s="25">
+        <v>1</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0</v>
+      </c>
+      <c r="H31" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>44018</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <v>1</v>
+      </c>
+      <c r="F32" s="25">
+        <v>5</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0</v>
+      </c>
+      <c r="H32" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
+        <v>44019</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="25">
+        <v>3</v>
+      </c>
+      <c r="F33" s="25">
+        <v>3</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0</v>
+      </c>
+      <c r="H33" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>44020</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0</v>
+      </c>
+      <c r="H34" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>44021</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <v>5</v>
+      </c>
+      <c r="G35" s="26">
+        <v>1</v>
+      </c>
+      <c r="H35" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>44022</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="F36" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0</v>
+      </c>
+      <c r="H36" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>44025</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="25">
+        <v>2</v>
+      </c>
+      <c r="F37" s="25">
+        <v>3</v>
+      </c>
+      <c r="G37" s="26">
+        <v>1</v>
+      </c>
+      <c r="H37" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>44026</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="24">
+        <v>2</v>
+      </c>
+      <c r="E38" s="25">
+        <v>1</v>
+      </c>
+      <c r="F38" s="25">
+        <v>2</v>
+      </c>
+      <c r="G38" s="26">
+        <v>1</v>
+      </c>
+      <c r="H38" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
+        <v>44027</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="24">
         <v>0.5</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E39" s="25">
+        <v>1</v>
+      </c>
+      <c r="F39" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0</v>
+      </c>
+      <c r="H39" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>44028</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0</v>
+      </c>
+      <c r="E40" s="25">
+        <v>1</v>
+      </c>
+      <c r="F40" s="25">
+        <v>5</v>
+      </c>
+      <c r="G40" s="26">
+        <v>0</v>
+      </c>
+      <c r="H40" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>44029</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0</v>
+      </c>
+      <c r="E41" s="25">
         <v>1.5</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F41" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="G41" s="26">
+        <v>0</v>
+      </c>
+      <c r="H41" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>44032</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="24">
+        <v>1</v>
+      </c>
+      <c r="E42" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="G42" s="26">
+        <v>0</v>
+      </c>
+      <c r="H42" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>44033</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0</v>
+      </c>
+      <c r="E43" s="25">
+        <v>0</v>
+      </c>
+      <c r="F43" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="G43" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="H43" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>44034</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0</v>
+      </c>
+      <c r="F44" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="G44" s="26">
+        <v>0</v>
+      </c>
+      <c r="H44" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>44035</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0</v>
+      </c>
+      <c r="E45" s="25">
+        <v>0</v>
+      </c>
+      <c r="F45" s="25">
+        <v>6</v>
+      </c>
+      <c r="G45" s="26">
+        <v>0</v>
+      </c>
+      <c r="H45" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>44036</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="24">
+        <v>0</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0</v>
+      </c>
+      <c r="F46" s="25">
+        <v>3</v>
+      </c>
+      <c r="G46" s="26">
+        <v>3</v>
+      </c>
+      <c r="H46" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>44039</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="E47" s="25">
+        <v>0</v>
+      </c>
+      <c r="F47" s="25">
+        <v>0</v>
+      </c>
+      <c r="G47" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="H47" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>44040</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="24">
         <v>4</v>
       </c>
-      <c r="G19" s="28">
-        <f t="shared" si="1"/>
+      <c r="E48" s="25">
+        <v>0</v>
+      </c>
+      <c r="F48" s="25">
+        <v>0</v>
+      </c>
+      <c r="G48" s="26">
+        <v>2</v>
+      </c>
+      <c r="H48" s="38">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
-        <v>44000</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="26">
-        <v>0</v>
-      </c>
-      <c r="E20" s="27">
-        <v>2</v>
-      </c>
-      <c r="F20" s="28">
-        <v>4</v>
-      </c>
-      <c r="G20" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
-        <v>44001</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="26">
-        <v>0</v>
-      </c>
-      <c r="E21" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="F21" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="G21" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>44004</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="26">
-        <v>0</v>
-      </c>
-      <c r="E22" s="27">
-        <v>4</v>
-      </c>
-      <c r="F22" s="28">
-        <v>2</v>
-      </c>
-      <c r="G22" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>44005</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="26">
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
-        <v>3.5</v>
-      </c>
-      <c r="F23" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="G23" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>44006</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="26">
-        <v>0</v>
-      </c>
-      <c r="E24" s="27">
-        <v>3</v>
-      </c>
-      <c r="F24" s="28">
-        <v>3</v>
-      </c>
-      <c r="G24" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>44007</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="26">
-        <v>0</v>
-      </c>
-      <c r="E25" s="27">
-        <v>3</v>
-      </c>
-      <c r="F25" s="28">
-        <v>3</v>
-      </c>
-      <c r="G25" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>44008</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="F26" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="G26" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <v>44011</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="26">
-        <v>0</v>
-      </c>
-      <c r="E27" s="27">
-        <v>2</v>
-      </c>
-      <c r="F27" s="28">
-        <v>4</v>
-      </c>
-      <c r="G27" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
-        <v>44012</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="26">
-        <v>0</v>
-      </c>
-      <c r="E28" s="27">
-        <v>1</v>
-      </c>
-      <c r="F28" s="28">
-        <v>5</v>
-      </c>
-      <c r="G28" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
-        <v>44013</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="E29" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="F29" s="28">
-        <v>3</v>
-      </c>
-      <c r="G29" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>44014</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="26">
-        <v>3</v>
-      </c>
-      <c r="E30" s="27">
-        <v>1</v>
-      </c>
-      <c r="F30" s="28">
-        <v>2</v>
-      </c>
-      <c r="G30" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <v>44015</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="9" t="s">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
+        <v>44041</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>44042</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>44043</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="39">
+        <f>D51+E51+F51+G51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14">
+        <f>SUM(D7:D51)</f>
+        <v>26.5</v>
+      </c>
+      <c r="E52" s="15">
+        <f>SUM(E7:E51)</f>
         <v>72</v>
       </c>
-      <c r="D31" s="26">
-        <v>2</v>
-      </c>
-      <c r="E31" s="27">
-        <v>3</v>
-      </c>
-      <c r="F31" s="28">
-        <v>1</v>
-      </c>
-      <c r="G31" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
-        <v>44018</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="26">
-        <v>0</v>
-      </c>
-      <c r="E32" s="27">
-        <v>1</v>
-      </c>
-      <c r="F32" s="28">
-        <v>5</v>
-      </c>
-      <c r="G32" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
-        <v>44019</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="27">
-        <v>3</v>
-      </c>
-      <c r="F33" s="28">
-        <v>3</v>
-      </c>
-      <c r="G33" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
-        <v>44020</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="26">
-        <v>0</v>
-      </c>
-      <c r="E34" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="F34" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="G34" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
-        <v>44021</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="26">
-        <v>0</v>
-      </c>
-      <c r="E35" s="27">
-        <v>0</v>
-      </c>
-      <c r="F35" s="28">
-        <v>6</v>
-      </c>
-      <c r="G35" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
-        <v>44022</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="26">
-        <v>0</v>
-      </c>
-      <c r="E36" s="27">
-        <v>3.5</v>
-      </c>
-      <c r="F36" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="G36" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
-        <v>44025</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="26">
-        <v>0</v>
-      </c>
-      <c r="E37" s="27">
-        <v>3</v>
-      </c>
-      <c r="F37" s="28">
-        <v>3</v>
-      </c>
-      <c r="G37" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
-        <v>44026</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="26">
-        <v>2</v>
-      </c>
-      <c r="E38" s="27">
-        <v>1</v>
-      </c>
-      <c r="F38" s="28">
-        <v>3</v>
-      </c>
-      <c r="G38" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
-        <v>44027</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="27">
-        <v>1</v>
-      </c>
-      <c r="F39" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="G39" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
-        <v>44028</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="26">
-        <v>0</v>
-      </c>
-      <c r="E40" s="27">
-        <v>1</v>
-      </c>
-      <c r="F40" s="28">
-        <v>5</v>
-      </c>
-      <c r="G40" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
-        <v>44029</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="26">
-        <v>0</v>
-      </c>
-      <c r="E41" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="F41" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="G41" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
-        <v>44032</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="26">
-        <v>1</v>
-      </c>
-      <c r="E42" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="G42" s="28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20">
-        <f>D44+E44+F44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14">
-        <f>SUM(D7:D44)</f>
-        <v>19.5</v>
-      </c>
-      <c r="E45" s="15">
-        <f>SUM(E7:E44)</f>
-        <v>73</v>
-      </c>
-      <c r="F45" s="16">
-        <f>SUM(F7:F44)</f>
-        <v>123.5</v>
-      </c>
-      <c r="G45" s="16">
-        <f>D45+E45+F45</f>
-        <v>216</v>
+      <c r="F52" s="30">
+        <f>SUM(F7:F51)</f>
+        <v>138.5</v>
+      </c>
+      <c r="G52" s="31">
+        <f>SUM(G7:G51)</f>
+        <v>15</v>
+      </c>
+      <c r="H52" s="31">
+        <f>SUM(H7:H51)</f>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB2D293-82D2-432C-A6B3-A325CDA61482}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABAA2B-E3D7-4D6B-A77C-BAD2D4BCADC6}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="57">
+        <f>SUM(Hourlist!D17:D21)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="57">
+        <f>SUM(Hourlist!E17:E21)</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="57">
+        <f>SUM(Hourlist!F17:F21)</f>
+        <v>16.5</v>
+      </c>
+      <c r="H7" s="58">
+        <f>SUM(Hourlist!G17:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
+        <f>E7+F7+G7+H7</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="57">
+        <f>SUM(Hourlist!D22:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="57">
+        <f>SUM(Hourlist!E22:E26)</f>
+        <v>15</v>
+      </c>
+      <c r="G8" s="57">
+        <f>SUM(Hourlist!F22:F26)</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="58">
+        <f>SUM(Hourlist!G22:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="59">
+        <f t="shared" ref="I8:I13" si="0">E8+F8+G8+H8</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="57">
+        <f>SUM(Hourlist!D27:D31)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F9" s="57">
+        <f>SUM(Hourlist!E27:E31)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G9" s="57">
+        <f>SUM(Hourlist!F27:F31)</f>
+        <v>15</v>
+      </c>
+      <c r="H9" s="58">
+        <f>SUM(Hourlist!G27:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="57">
+        <f>SUM(Hourlist!D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="57">
+        <f>SUM(Hourlist!E32:E36)</f>
+        <v>9</v>
+      </c>
+      <c r="G10" s="57">
+        <f>SUM(Hourlist!F32:F36)</f>
+        <v>20</v>
+      </c>
+      <c r="H10" s="58">
+        <f>SUM(Hourlist!G32:G36)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="59">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="57">
+        <f>SUM(Hourlist!D37:D41)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="57">
+        <f>SUM(Hourlist!E37:E41)</f>
+        <v>6.5</v>
+      </c>
+      <c r="G11" s="57">
+        <f>SUM(Hourlist!F37:F41)</f>
+        <v>19</v>
+      </c>
+      <c r="H11" s="58">
+        <f>SUM(Hourlist!G37:G41)</f>
+        <v>2</v>
+      </c>
+      <c r="I11" s="59">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="57">
+        <f>SUM(Hourlist!D42:D46)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="57">
+        <f>SUM(Hourlist!E42:E46)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="57">
+        <f>SUM(Hourlist!F42:F46)</f>
+        <v>21.5</v>
+      </c>
+      <c r="H12" s="58">
+        <f>SUM(Hourlist!G42:G46)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I12" s="59">
+        <f>E12+F12+G12+H12</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="57">
+        <f>SUM(Hourlist!D47:D51)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F13" s="57">
+        <f>SUM(Hourlist!E47:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="57">
+        <f>SUM(Hourlist!F47:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="58">
+        <f>SUM(Hourlist!G47:G51)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I13" s="59">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="48">
+        <f>SUM(E7:E13)</f>
+        <v>20.5</v>
+      </c>
+      <c r="F14" s="48">
+        <f>SUM(F7:F13)</f>
+        <v>49.5</v>
+      </c>
+      <c r="G14" s="48">
+        <f>SUM(G7:G13)</f>
+        <v>107</v>
+      </c>
+      <c r="H14" s="48">
+        <f>SUM(H7:H13)</f>
+        <v>15</v>
+      </c>
+      <c r="I14" s="50">
+        <f>SUM(I7:I13)</f>
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30706AE6-2DA4-44A2-9379-C8DA575B6329}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="42">
+        <f>Hourlist!D52</f>
+        <v>26.5</v>
+      </c>
+      <c r="B2" s="42">
+        <f>Hourlist!E52</f>
+        <v>72</v>
+      </c>
+      <c r="C2" s="42">
+        <f>Hourlist!F52</f>
+        <v>138.5</v>
+      </c>
+      <c r="D2" s="42">
+        <f>Hourlist!G52</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>